--- a/Testphase/Testfälle_Zentralbereichsleiter.xlsx
+++ b/Testphase/Testfälle_Zentralbereichsleiter.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="71">
   <si>
     <t>Rolle</t>
   </si>
@@ -42,9 +42,6 @@
     <t>Altes PW eingeben, 2x das Neue PW eingeben „Speichern“ drücken, danach versuchen mit dem neuen PW anzumelden.</t>
   </si>
   <si>
-    <t>Man kann sich mit dem neuen PW anmelden und es wird eine Meldung ausgegeben, dass PW Ändern erfolgreich war.</t>
-  </si>
-  <si>
     <t>Falsches PW</t>
   </si>
   <si>
@@ -220,6 +217,18 @@
   </si>
   <si>
     <t>Zentralbereichsleiter</t>
+  </si>
+  <si>
+    <t>Funktioniert</t>
+  </si>
+  <si>
+    <t>15.10.2013 11:15Uhr</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Man kann sich mit dem neuen PW anmelden und es wird eine Meldung ausgegeben, dass PW Ändern erfolgreich war. </t>
+  </si>
+  <si>
+    <t>Funktioniert nicht</t>
   </si>
 </sst>
 </file>
@@ -248,7 +257,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -258,6 +267,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -274,7 +295,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -288,6 +309,18 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -587,7 +620,7 @@
   <dimension ref="A1:F84"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+      <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -597,6 +630,7 @@
     <col min="3" max="3" width="28.140625" style="3" customWidth="1"/>
     <col min="4" max="4" width="22.28515625" style="3" customWidth="1"/>
     <col min="5" max="5" width="30.5703125" customWidth="1"/>
+    <col min="6" max="6" width="11.42578125" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
@@ -619,313 +653,372 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="90">
-      <c r="A2" t="s">
+    <row r="2" spans="1:6" s="7" customFormat="1" ht="90">
+      <c r="A2" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="E2" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="B2" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D2" s="3" t="s">
+      <c r="F2" s="8" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" s="7" customFormat="1" ht="30">
+      <c r="A3" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="B3" s="8" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" ht="30">
-      <c r="A3" t="s">
+      <c r="C3" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="B3" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3" s="3" t="s">
+      <c r="F3" s="8" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" s="7" customFormat="1" ht="30">
+      <c r="A4" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="B4" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="E3" s="3"/>
-    </row>
-    <row r="4" spans="1:6" ht="30">
-      <c r="A4" t="s">
+      <c r="C4" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="B4" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>14</v>
+      <c r="F4" s="8" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="45">
       <c r="A5" t="s">
+        <v>66</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E5" s="4"/>
+    </row>
+    <row r="6" spans="1:6" s="9" customFormat="1" ht="30">
+      <c r="A6" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="B6" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="D6" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="E6" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="F6" s="10" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" s="7" customFormat="1" ht="75">
+      <c r="A7" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="E7" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="B5" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="E5" s="4"/>
-    </row>
-    <row r="6" spans="1:6" ht="30">
-      <c r="A6" t="s">
+      <c r="F7" s="8" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" s="7" customFormat="1" ht="45">
+      <c r="A8" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="E8" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="B6" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" ht="75">
-      <c r="A7" t="s">
+      <c r="F8" s="8" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" s="7" customFormat="1" ht="45">
+      <c r="A9" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="D9" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="E9" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="B7" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" ht="45">
-      <c r="A8" t="s">
-        <v>67</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" ht="45">
-      <c r="A9" t="s">
-        <v>67</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>29</v>
+      <c r="F9" s="8" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="45">
       <c r="A10" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B10" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C10" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="C10" s="3" t="s">
+      <c r="D10" s="3" t="s">
         <v>31</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>32</v>
       </c>
       <c r="E10" s="3"/>
     </row>
     <row r="11" spans="1:6" ht="45">
       <c r="A11" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B11" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D11" s="3" t="s">
         <v>33</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="45">
       <c r="A12" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B12" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C12" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="C12" s="3" t="s">
+      <c r="D12" s="3" t="s">
         <v>36</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="45">
       <c r="A13" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B13" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C13" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="C13" s="3" t="s">
+      <c r="D13" s="3" t="s">
         <v>39</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="14" spans="1:6">
       <c r="A14" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B14" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C14" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="C14" s="3" t="s">
+      <c r="D14" s="3" t="s">
         <v>42</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="15" spans="1:6">
       <c r="A15" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B15" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C15" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="C15" s="3" t="s">
+      <c r="D15" s="3" t="s">
         <v>45</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="45">
       <c r="A16" t="s">
+        <v>66</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="60">
+      <c r="A17" t="s">
+        <v>66</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="30">
+      <c r="A18" t="s">
+        <v>66</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="45">
+      <c r="A19" t="s">
+        <v>66</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" s="11" customFormat="1" ht="30">
+      <c r="A20" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="B20" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="C20" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="D20" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="E20" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="F20" s="12" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" s="9" customFormat="1" ht="45">
+      <c r="A21" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="B21" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="C21" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="D21" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="E21" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="F21" s="12" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" s="7" customFormat="1" ht="30">
+      <c r="A22" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="B22" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="C22" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="D22" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="E22" s="8" t="s">
         <v>67</v>
       </c>
-      <c r="B16" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="D16" s="3" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" ht="60">
-      <c r="A17" t="s">
-        <v>67</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="D17" s="3" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" ht="30">
-      <c r="A18" t="s">
-        <v>67</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="D18" s="3" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" ht="45">
-      <c r="A19" t="s">
-        <v>67</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="C19" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="D19" s="3" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" ht="30">
-      <c r="A20" t="s">
-        <v>67</v>
-      </c>
-      <c r="B20" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="C20" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="D20" s="3" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" ht="45">
-      <c r="A21" t="s">
-        <v>67</v>
-      </c>
-      <c r="B21" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="C21" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="D21" s="3" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" ht="30">
-      <c r="A22" t="s">
-        <v>67</v>
-      </c>
-      <c r="B22" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="C22" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="D22" s="3" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5">
+      <c r="F22" s="8" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
       <c r="E28" s="3"/>
     </row>
-    <row r="29" spans="1:5">
+    <row r="29" spans="1:6">
       <c r="B29" s="5"/>
     </row>
-    <row r="31" spans="1:5">
+    <row r="31" spans="1:6">
       <c r="E31" s="3"/>
     </row>
-    <row r="32" spans="1:5">
+    <row r="32" spans="1:6">
       <c r="B32" s="6"/>
     </row>
     <row r="39" spans="2:5">
@@ -970,6 +1063,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/Testphase/Testfälle_Zentralbereichsleiter.xlsx
+++ b/Testphase/Testfälle_Zentralbereichsleiter.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="78">
   <si>
     <t>Rolle</t>
   </si>
@@ -229,6 +229,27 @@
   </si>
   <si>
     <t>Funktioniert nicht</t>
+  </si>
+  <si>
+    <t>Weiterleitung von 1.Passwort ändern</t>
+  </si>
+  <si>
+    <t>Passwort nach erstem Login ändern</t>
+  </si>
+  <si>
+    <t>Weiterleitung auf den Startbildschirm nach erfolgreichem ändern</t>
+  </si>
+  <si>
+    <t>funktioniert nicht</t>
+  </si>
+  <si>
+    <t>16.10.2013 9:40Uhr</t>
+  </si>
+  <si>
+    <t>16.10.2013 9:44Uhr</t>
+  </si>
+  <si>
+    <t>funktinoiert nicht</t>
   </si>
 </sst>
 </file>
@@ -295,7 +316,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -304,7 +325,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -619,8 +639,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F84"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D27" sqref="D27"/>
+    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -653,158 +673,163 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" s="7" customFormat="1" ht="90">
-      <c r="A2" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="B2" s="8" t="s">
+    <row r="2" spans="1:6" s="6" customFormat="1" ht="90">
+      <c r="A2" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="B2" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="C2" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="8" t="s">
+      <c r="D2" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="E2" s="7" t="s">
+      <c r="E2" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="F2" s="8" t="s">
+      <c r="F2" s="7" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="3" spans="1:6" s="7" customFormat="1" ht="30">
-      <c r="A3" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="B3" s="8" t="s">
+    <row r="3" spans="1:6" s="6" customFormat="1" ht="30">
+      <c r="A3" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="B3" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="8" t="s">
+      <c r="C3" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="8" t="s">
+      <c r="D3" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="E3" s="7" t="s">
+      <c r="E3" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="F3" s="8" t="s">
+      <c r="F3" s="7" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="4" spans="1:6" s="7" customFormat="1" ht="30">
-      <c r="A4" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="B4" s="8" t="s">
+    <row r="4" spans="1:6" s="6" customFormat="1" ht="30">
+      <c r="A4" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="B4" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="8" t="s">
+      <c r="C4" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="D4" s="8" t="s">
+      <c r="D4" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="E4" s="7" t="s">
+      <c r="E4" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="F4" s="8" t="s">
+      <c r="F4" s="7" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="45">
-      <c r="A5" t="s">
-        <v>66</v>
-      </c>
-      <c r="B5" s="3" t="s">
+    <row r="5" spans="1:6" s="8" customFormat="1" ht="45">
+      <c r="A5" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="B5" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C5" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="D5" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="E5" s="4"/>
-    </row>
-    <row r="6" spans="1:6" s="9" customFormat="1" ht="30">
-      <c r="A6" s="9" t="s">
-        <v>66</v>
-      </c>
-      <c r="B6" s="10" t="s">
+      <c r="E5" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="F5" s="9" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" s="8" customFormat="1" ht="30">
+      <c r="A6" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="B6" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="C6" s="10" t="s">
+      <c r="C6" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="D6" s="10" t="s">
+      <c r="D6" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="E6" s="9" t="s">
+      <c r="E6" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="F6" s="10" t="s">
+      <c r="F6" s="9" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="7" spans="1:6" s="7" customFormat="1" ht="75">
-      <c r="A7" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="B7" s="8" t="s">
+    <row r="7" spans="1:6" s="6" customFormat="1" ht="75">
+      <c r="A7" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="B7" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="C7" s="8" t="s">
+      <c r="C7" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="D7" s="8" t="s">
+      <c r="D7" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="E7" s="7" t="s">
+      <c r="E7" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="F7" s="8" t="s">
+      <c r="F7" s="7" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="8" spans="1:6" s="7" customFormat="1" ht="45">
-      <c r="A8" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="B8" s="8" t="s">
+    <row r="8" spans="1:6" s="6" customFormat="1" ht="45">
+      <c r="A8" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="B8" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="C8" s="8" t="s">
+      <c r="C8" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="D8" s="8" t="s">
+      <c r="D8" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="E8" s="7" t="s">
+      <c r="E8" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="F8" s="8" t="s">
+      <c r="F8" s="7" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="9" spans="1:6" s="7" customFormat="1" ht="45">
-      <c r="A9" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="B9" s="8" t="s">
+    <row r="9" spans="1:6" s="6" customFormat="1" ht="45">
+      <c r="A9" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="B9" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="C9" s="8" t="s">
+      <c r="C9" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="D9" s="8" t="s">
+      <c r="D9" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="E9" s="7" t="s">
+      <c r="E9" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="F9" s="8" t="s">
+      <c r="F9" s="7" t="s">
         <v>68</v>
       </c>
     </row>
@@ -837,18 +862,24 @@
         <v>33</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="45">
-      <c r="A12" t="s">
-        <v>66</v>
-      </c>
-      <c r="B12" s="3" t="s">
+    <row r="12" spans="1:6" s="8" customFormat="1" ht="45">
+      <c r="A12" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="B12" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="C12" s="3" t="s">
+      <c r="C12" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="D12" s="3" t="s">
+      <c r="D12" s="9" t="s">
         <v>36</v>
+      </c>
+      <c r="E12" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="F12" s="9" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="45">
@@ -921,18 +952,24 @@
         <v>51</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="30">
-      <c r="A18" t="s">
-        <v>66</v>
-      </c>
-      <c r="B18" s="3" t="s">
+    <row r="18" spans="1:6" s="8" customFormat="1" ht="30">
+      <c r="A18" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="B18" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="C18" s="3" t="s">
+      <c r="C18" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="D18" s="3" t="s">
+      <c r="D18" s="9" t="s">
         <v>54</v>
+      </c>
+      <c r="E18" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="F18" s="9" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="45">
@@ -949,93 +986,113 @@
         <v>57</v>
       </c>
     </row>
-    <row r="20" spans="1:6" s="11" customFormat="1" ht="30">
-      <c r="A20" s="11" t="s">
-        <v>66</v>
-      </c>
-      <c r="B20" s="12" t="s">
+    <row r="20" spans="1:6" s="10" customFormat="1" ht="30">
+      <c r="A20" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="B20" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="C20" s="12" t="s">
+      <c r="C20" s="11" t="s">
         <v>59</v>
       </c>
-      <c r="D20" s="12" t="s">
+      <c r="D20" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="E20" s="11" t="s">
+      <c r="E20" s="10" t="s">
         <v>70</v>
       </c>
-      <c r="F20" s="12" t="s">
+      <c r="F20" s="11" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="21" spans="1:6" s="9" customFormat="1" ht="45">
-      <c r="A21" s="9" t="s">
-        <v>66</v>
-      </c>
-      <c r="B21" s="10" t="s">
+    <row r="21" spans="1:6" s="8" customFormat="1" ht="45">
+      <c r="A21" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="B21" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="C21" s="10" t="s">
+      <c r="C21" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="D21" s="10" t="s">
+      <c r="D21" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="E21" s="11" t="s">
+      <c r="E21" s="10" t="s">
         <v>70</v>
       </c>
-      <c r="F21" s="12" t="s">
+      <c r="F21" s="11" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="22" spans="1:6" s="7" customFormat="1" ht="30">
-      <c r="A22" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="B22" s="8" t="s">
+    <row r="22" spans="1:6" s="6" customFormat="1" ht="30">
+      <c r="A22" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="B22" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="C22" s="8" t="s">
+      <c r="C22" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="D22" s="8" t="s">
+      <c r="D22" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="E22" s="8" t="s">
+      <c r="E22" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="F22" s="8" t="s">
+      <c r="F22" s="7" t="s">
         <v>68</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" s="8" customFormat="1" ht="45">
+      <c r="A23" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="B23" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="C23" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="D23" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="E23" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="F23" s="9" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="28" spans="1:6">
       <c r="E28" s="3"/>
     </row>
     <row r="29" spans="1:6">
-      <c r="B29" s="5"/>
+      <c r="B29" s="4"/>
     </row>
     <row r="31" spans="1:6">
       <c r="E31" s="3"/>
     </row>
     <row r="32" spans="1:6">
-      <c r="B32" s="6"/>
+      <c r="B32" s="5"/>
     </row>
     <row r="39" spans="2:5">
       <c r="E39" s="3"/>
     </row>
     <row r="40" spans="2:5">
-      <c r="B40" s="6"/>
+      <c r="B40" s="5"/>
     </row>
     <row r="41" spans="2:5">
-      <c r="B41" s="6"/>
+      <c r="B41" s="5"/>
       <c r="E41" s="3"/>
     </row>
     <row r="60" spans="5:5">
       <c r="E60" s="3"/>
     </row>
     <row r="65" spans="2:5">
-      <c r="B65" s="6"/>
+      <c r="B65" s="5"/>
     </row>
     <row r="67" spans="2:5">
       <c r="E67" s="3"/>
@@ -1053,13 +1110,13 @@
       <c r="E75" s="3"/>
     </row>
     <row r="76" spans="2:5">
-      <c r="B76" s="6"/>
+      <c r="B76" s="5"/>
     </row>
     <row r="81" spans="2:5">
       <c r="E81" s="3"/>
     </row>
     <row r="84" spans="2:5">
-      <c r="B84" s="6"/>
+      <c r="B84" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>

--- a/Testphase/Testfälle_Zentralbereichsleiter.xlsx
+++ b/Testphase/Testfälle_Zentralbereichsleiter.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="84">
   <si>
     <t>Rolle</t>
   </si>
@@ -250,6 +250,24 @@
   </si>
   <si>
     <t>funktinoiert nicht</t>
+  </si>
+  <si>
+    <t>Button wurde entfernt</t>
+  </si>
+  <si>
+    <t>funktioniert</t>
+  </si>
+  <si>
+    <t>16.10.2013 12:10Uhr</t>
+  </si>
+  <si>
+    <t>16.10.2013 12:10 Uhr</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Funktioniert </t>
+  </si>
+  <si>
+    <t>Funktioniert teilweise</t>
   </si>
 </sst>
 </file>
@@ -278,7 +296,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -303,6 +321,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -316,7 +340,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -339,8 +363,16 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -639,8 +671,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F84"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="H21" sqref="H21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -753,23 +785,23 @@
         <v>76</v>
       </c>
     </row>
-    <row r="6" spans="1:6" s="8" customFormat="1" ht="30">
-      <c r="A6" s="8" t="s">
-        <v>66</v>
-      </c>
-      <c r="B6" s="9" t="s">
+    <row r="6" spans="1:6" s="10" customFormat="1" ht="30">
+      <c r="A6" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="B6" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="C6" s="9" t="s">
+      <c r="C6" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="D6" s="9" t="s">
+      <c r="D6" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="E6" s="8" t="s">
-        <v>70</v>
-      </c>
-      <c r="F6" s="9" t="s">
+      <c r="E6" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="F6" s="11" t="s">
         <v>68</v>
       </c>
     </row>
@@ -848,19 +880,20 @@
       </c>
       <c r="E10" s="3"/>
     </row>
-    <row r="11" spans="1:6" ht="45">
-      <c r="A11" t="s">
-        <v>66</v>
-      </c>
-      <c r="B11" s="3" t="s">
+    <row r="11" spans="1:6" s="8" customFormat="1" ht="45">
+      <c r="A11" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="B11" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="C11" s="3" t="s">
+      <c r="C11" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="D11" s="3" t="s">
+      <c r="D11" s="9" t="s">
         <v>33</v>
       </c>
+      <c r="F11" s="9"/>
     </row>
     <row r="12" spans="1:6" s="8" customFormat="1" ht="45">
       <c r="A12" s="8" t="s">
@@ -882,32 +915,44 @@
         <v>76</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="45">
-      <c r="A13" t="s">
-        <v>66</v>
-      </c>
-      <c r="B13" s="3" t="s">
+    <row r="13" spans="1:6" s="6" customFormat="1" ht="45">
+      <c r="A13" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="B13" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="C13" s="3" t="s">
+      <c r="C13" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="D13" s="3" t="s">
+      <c r="D13" s="7" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="14" spans="1:6">
-      <c r="A14" t="s">
-        <v>66</v>
-      </c>
-      <c r="B14" s="3" t="s">
+      <c r="E13" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" s="6" customFormat="1" ht="30">
+      <c r="A14" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="B14" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="C14" s="3" t="s">
+      <c r="C14" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="D14" s="3" t="s">
+      <c r="D14" s="7" t="s">
         <v>42</v>
+      </c>
+      <c r="E14" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -986,44 +1031,44 @@
         <v>57</v>
       </c>
     </row>
-    <row r="20" spans="1:6" s="10" customFormat="1" ht="30">
-      <c r="A20" s="10" t="s">
-        <v>66</v>
-      </c>
-      <c r="B20" s="11" t="s">
+    <row r="20" spans="1:6" s="12" customFormat="1" ht="30">
+      <c r="A20" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="B20" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="C20" s="11" t="s">
+      <c r="C20" s="13" t="s">
         <v>59</v>
       </c>
-      <c r="D20" s="11" t="s">
+      <c r="D20" s="13" t="s">
         <v>60</v>
       </c>
-      <c r="E20" s="10" t="s">
-        <v>70</v>
-      </c>
-      <c r="F20" s="11" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" s="8" customFormat="1" ht="45">
-      <c r="A21" s="8" t="s">
-        <v>66</v>
-      </c>
-      <c r="B21" s="9" t="s">
+      <c r="E20" s="12" t="s">
+        <v>82</v>
+      </c>
+      <c r="F20" s="13" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" s="10" customFormat="1" ht="45">
+      <c r="A21" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="B21" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="C21" s="9" t="s">
+      <c r="C21" s="11" t="s">
         <v>62</v>
       </c>
-      <c r="D21" s="9" t="s">
+      <c r="D21" s="11" t="s">
         <v>63</v>
       </c>
-      <c r="E21" s="10" t="s">
-        <v>70</v>
-      </c>
-      <c r="F21" s="11" t="s">
-        <v>68</v>
+      <c r="E21" s="14" t="s">
+        <v>83</v>
+      </c>
+      <c r="F21" s="15" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="22" spans="1:6" s="6" customFormat="1" ht="30">

--- a/Testphase/Testfälle_Zentralbereichsleiter.xlsx
+++ b/Testphase/Testfälle_Zentralbereichsleiter.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="73">
   <si>
     <t>Rolle</t>
   </si>
@@ -105,15 +105,6 @@
     <t>Man gelangt auf den Einloggen Bildschirm zurück.</t>
   </si>
   <si>
-    <t>Arbeitsgruppe ansehen beenden</t>
-  </si>
-  <si>
-    <t>Schließen Knopf bei der Ansicht „Arbeitsgruppe einsehen“</t>
-  </si>
-  <si>
-    <t>Man gelangt auf den Suchbildschirm zurück und dieser ist geleert.</t>
-  </si>
-  <si>
     <t>Woche eingeben, Jahr löschen</t>
   </si>
   <si>
@@ -147,33 +138,9 @@
     <t>Passende Ausgabe.</t>
   </si>
   <si>
-    <t>Radio Buttons überprüfen</t>
-  </si>
-  <si>
-    <t>Alle versuchen anzuwählen</t>
-  </si>
-  <si>
-    <t>Alle Anwählbar</t>
-  </si>
-  <si>
-    <t>Auswählen Button ohne Radio Button</t>
-  </si>
-  <si>
-    <t>Button Auswählen betätigen ohne einen Radio Button auszuwählen</t>
-  </si>
-  <si>
     <t>Fehlermeldung</t>
   </si>
   <si>
-    <t>Auswählen Button mit Radio Button</t>
-  </si>
-  <si>
-    <t>Auswählen Button während Radio Button ausgewählt</t>
-  </si>
-  <si>
-    <t>Entsprechend gewünschte Arbeitsgruppe wird angezeigt</t>
-  </si>
-  <si>
     <t>Abbrechen</t>
   </si>
   <si>
@@ -228,9 +195,6 @@
     <t xml:space="preserve">Man kann sich mit dem neuen PW anmelden und es wird eine Meldung ausgegeben, dass PW Ändern erfolgreich war. </t>
   </si>
   <si>
-    <t>Funktioniert nicht</t>
-  </si>
-  <si>
     <t>Weiterleitung von 1.Passwort ändern</t>
   </si>
   <si>
@@ -268,6 +232,9 @@
   </si>
   <si>
     <t>Funktioniert teilweise</t>
+  </si>
+  <si>
+    <t>16.10.2013 17:00Uhr</t>
   </si>
 </sst>
 </file>
@@ -340,7 +307,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -369,10 +336,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -669,10 +632,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F84"/>
+  <dimension ref="A1:F80"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="H21" sqref="H21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -707,7 +670,7 @@
     </row>
     <row r="2" spans="1:6" s="6" customFormat="1" ht="90">
       <c r="A2" s="6" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="B2" s="7" t="s">
         <v>6</v>
@@ -716,18 +679,18 @@
         <v>7</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>69</v>
+        <v>58</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>67</v>
+        <v>56</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
     </row>
     <row r="3" spans="1:6" s="6" customFormat="1" ht="30">
       <c r="A3" s="6" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="B3" s="7" t="s">
         <v>8</v>
@@ -739,15 +702,15 @@
         <v>10</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>67</v>
+        <v>56</v>
       </c>
       <c r="F3" s="7" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
     </row>
     <row r="4" spans="1:6" s="6" customFormat="1" ht="30">
       <c r="A4" s="6" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="B4" s="7" t="s">
         <v>11</v>
@@ -759,35 +722,35 @@
         <v>13</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>67</v>
+        <v>56</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" s="8" customFormat="1" ht="45">
-      <c r="A5" s="8" t="s">
-        <v>66</v>
-      </c>
-      <c r="B5" s="9" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" s="6" customFormat="1" ht="45">
+      <c r="A5" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="B5" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="C5" s="9" t="s">
+      <c r="C5" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="D5" s="9" t="s">
+      <c r="D5" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="E5" s="8" t="s">
-        <v>70</v>
-      </c>
-      <c r="F5" s="9" t="s">
-        <v>76</v>
+      <c r="E5" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="6" spans="1:6" s="10" customFormat="1" ht="30">
       <c r="A6" s="10" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="B6" s="11" t="s">
         <v>17</v>
@@ -799,15 +762,15 @@
         <v>19</v>
       </c>
       <c r="E6" s="10" t="s">
-        <v>78</v>
+        <v>66</v>
       </c>
       <c r="F6" s="11" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
     </row>
     <row r="7" spans="1:6" s="6" customFormat="1" ht="75">
       <c r="A7" s="6" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="B7" s="7" t="s">
         <v>20</v>
@@ -819,15 +782,15 @@
         <v>22</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>67</v>
+        <v>56</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
     </row>
     <row r="8" spans="1:6" s="6" customFormat="1" ht="45">
       <c r="A8" s="6" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="B8" s="7" t="s">
         <v>23</v>
@@ -839,15 +802,15 @@
         <v>25</v>
       </c>
       <c r="E8" s="6" t="s">
-        <v>67</v>
+        <v>56</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
     </row>
     <row r="9" spans="1:6" s="6" customFormat="1" ht="45">
       <c r="A9" s="6" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="B9" s="7" t="s">
         <v>26</v>
@@ -859,33 +822,38 @@
         <v>28</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>67</v>
+        <v>56</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" ht="45">
-      <c r="A10" t="s">
-        <v>66</v>
-      </c>
-      <c r="B10" s="3" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" s="8" customFormat="1" ht="45">
+      <c r="A10" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="B10" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="C10" s="3" t="s">
+      <c r="C10" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="D10" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="D10" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="E10" s="3"/>
+      <c r="E10" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="F10" s="9" t="s">
+        <v>72</v>
+      </c>
     </row>
     <row r="11" spans="1:6" s="8" customFormat="1" ht="45">
       <c r="A11" s="8" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C11" s="9" t="s">
         <v>32</v>
@@ -893,31 +861,36 @@
       <c r="D11" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="F11" s="9"/>
-    </row>
-    <row r="12" spans="1:6" s="8" customFormat="1" ht="45">
-      <c r="A12" s="8" t="s">
-        <v>66</v>
-      </c>
-      <c r="B12" s="9" t="s">
+      <c r="E11" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="F11" s="9" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" s="6" customFormat="1" ht="45">
+      <c r="A12" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="B12" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="C12" s="9" t="s">
+      <c r="C12" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="D12" s="9" t="s">
+      <c r="D12" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="E12" s="8" t="s">
-        <v>77</v>
-      </c>
-      <c r="F12" s="9" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" s="6" customFormat="1" ht="45">
+      <c r="E12" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" s="6" customFormat="1" ht="30">
       <c r="A13" s="6" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="B13" s="7" t="s">
         <v>37</v>
@@ -929,239 +902,183 @@
         <v>39</v>
       </c>
       <c r="E13" s="6" t="s">
-        <v>79</v>
+        <v>67</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" s="6" customFormat="1" ht="30">
-      <c r="A14" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="B14" s="7" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" s="8" customFormat="1" ht="30">
+      <c r="A14" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="B14" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="C14" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="D14" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="E14" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="F14" s="9" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" s="6" customFormat="1" ht="45">
+      <c r="A15" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="B15" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="C15" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="D15" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="E15" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" s="12" customFormat="1" ht="30">
+      <c r="A16" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="B16" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="C16" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="D16" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="E16" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="F16" s="13" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" s="6" customFormat="1" ht="45">
+      <c r="A17" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="B17" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="C17" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="D17" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="E17" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="F17" s="13" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" s="6" customFormat="1" ht="30">
+      <c r="A18" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="B18" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="C18" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="D18" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="C14" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="D14" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="E14" s="6" t="s">
-        <v>79</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6">
-      <c r="A15" t="s">
-        <v>66</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" ht="45">
-      <c r="A16" t="s">
-        <v>66</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="D16" s="3" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" ht="60">
-      <c r="A17" t="s">
-        <v>66</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="D17" s="3" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" s="8" customFormat="1" ht="30">
-      <c r="A18" s="8" t="s">
-        <v>66</v>
-      </c>
-      <c r="B18" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="C18" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="D18" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="E18" s="8" t="s">
-        <v>74</v>
-      </c>
-      <c r="F18" s="9" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" ht="45">
-      <c r="A19" t="s">
-        <v>66</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="C19" s="3" t="s">
+      <c r="E18" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="D19" s="3" t="s">
+      <c r="F18" s="7" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="20" spans="1:6" s="12" customFormat="1" ht="30">
-      <c r="A20" s="12" t="s">
-        <v>66</v>
-      </c>
-      <c r="B20" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="C20" s="13" t="s">
+    <row r="19" spans="1:6" s="8" customFormat="1" ht="45">
+      <c r="A19" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="B19" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="D20" s="13" t="s">
+      <c r="C19" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="E20" s="12" t="s">
-        <v>82</v>
-      </c>
-      <c r="F20" s="13" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" s="10" customFormat="1" ht="45">
-      <c r="A21" s="10" t="s">
-        <v>66</v>
-      </c>
-      <c r="B21" s="11" t="s">
+      <c r="D19" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="C21" s="11" t="s">
+      <c r="E19" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="D21" s="11" t="s">
+      <c r="F19" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="E21" s="14" t="s">
-        <v>83</v>
-      </c>
-      <c r="F21" s="15" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" s="6" customFormat="1" ht="30">
-      <c r="A22" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="B22" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="C22" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="D22" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="E22" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" s="8" customFormat="1" ht="45">
-      <c r="A23" s="8" t="s">
-        <v>66</v>
-      </c>
-      <c r="B23" s="9" t="s">
-        <v>71</v>
-      </c>
-      <c r="C23" s="9" t="s">
-        <v>72</v>
-      </c>
-      <c r="D23" s="9" t="s">
-        <v>73</v>
-      </c>
-      <c r="E23" s="9" t="s">
-        <v>74</v>
-      </c>
-      <c r="F23" s="9" t="s">
-        <v>75</v>
-      </c>
+    </row>
+    <row r="24" spans="1:6">
+      <c r="E24" s="3"/>
+    </row>
+    <row r="25" spans="1:6">
+      <c r="B25" s="4"/>
+    </row>
+    <row r="27" spans="1:6">
+      <c r="E27" s="3"/>
     </row>
     <row r="28" spans="1:6">
-      <c r="E28" s="3"/>
-    </row>
-    <row r="29" spans="1:6">
-      <c r="B29" s="4"/>
-    </row>
-    <row r="31" spans="1:6">
-      <c r="E31" s="3"/>
-    </row>
-    <row r="32" spans="1:6">
-      <c r="B32" s="5"/>
-    </row>
-    <row r="39" spans="2:5">
-      <c r="E39" s="3"/>
-    </row>
-    <row r="40" spans="2:5">
-      <c r="B40" s="5"/>
-    </row>
-    <row r="41" spans="2:5">
-      <c r="B41" s="5"/>
-      <c r="E41" s="3"/>
-    </row>
-    <row r="60" spans="5:5">
-      <c r="E60" s="3"/>
+      <c r="B28" s="5"/>
+    </row>
+    <row r="35" spans="2:5">
+      <c r="E35" s="3"/>
+    </row>
+    <row r="36" spans="2:5">
+      <c r="B36" s="5"/>
+    </row>
+    <row r="37" spans="2:5">
+      <c r="B37" s="5"/>
+      <c r="E37" s="3"/>
+    </row>
+    <row r="56" spans="2:5">
+      <c r="E56" s="3"/>
+    </row>
+    <row r="61" spans="2:5">
+      <c r="B61" s="5"/>
+    </row>
+    <row r="63" spans="2:5">
+      <c r="E63" s="3"/>
+    </row>
+    <row r="64" spans="2:5">
+      <c r="E64" s="3"/>
     </row>
     <row r="65" spans="2:5">
-      <c r="B65" s="5"/>
-    </row>
-    <row r="67" spans="2:5">
-      <c r="E67" s="3"/>
-    </row>
-    <row r="68" spans="2:5">
-      <c r="E68" s="3"/>
-    </row>
-    <row r="69" spans="2:5">
-      <c r="E69" s="3"/>
-    </row>
-    <row r="70" spans="2:5">
-      <c r="E70" s="3"/>
-    </row>
-    <row r="75" spans="2:5">
-      <c r="E75" s="3"/>
-    </row>
-    <row r="76" spans="2:5">
-      <c r="B76" s="5"/>
-    </row>
-    <row r="81" spans="2:5">
-      <c r="E81" s="3"/>
-    </row>
-    <row r="84" spans="2:5">
-      <c r="B84" s="5"/>
+      <c r="E65" s="3"/>
+    </row>
+    <row r="66" spans="2:5">
+      <c r="E66" s="3"/>
+    </row>
+    <row r="71" spans="2:5">
+      <c r="E71" s="3"/>
+    </row>
+    <row r="72" spans="2:5">
+      <c r="B72" s="5"/>
+    </row>
+    <row r="77" spans="2:5">
+      <c r="E77" s="3"/>
+    </row>
+    <row r="80" spans="2:5">
+      <c r="B80" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>

--- a/Testphase/Testfälle_Zentralbereichsleiter.xlsx
+++ b/Testphase/Testfälle_Zentralbereichsleiter.xlsx
@@ -11,12 +11,15 @@
     <sheet name="Tabelle2" sheetId="2" r:id="rId2"/>
     <sheet name="Tabelle3" sheetId="3" r:id="rId3"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Tabelle1!$E$1:$E$80</definedName>
+  </definedNames>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="71">
   <si>
     <t>Rolle</t>
   </si>
@@ -210,31 +213,25 @@
     <t>16.10.2013 9:40Uhr</t>
   </si>
   <si>
-    <t>16.10.2013 9:44Uhr</t>
-  </si>
-  <si>
-    <t>funktinoiert nicht</t>
-  </si>
-  <si>
     <t>Button wurde entfernt</t>
   </si>
   <si>
-    <t>funktioniert</t>
-  </si>
-  <si>
     <t>16.10.2013 12:10Uhr</t>
   </si>
   <si>
     <t>16.10.2013 12:10 Uhr</t>
   </si>
   <si>
-    <t xml:space="preserve">Funktioniert </t>
-  </si>
-  <si>
-    <t>Funktioniert teilweise</t>
-  </si>
-  <si>
     <t>16.10.2013 17:00Uhr</t>
+  </si>
+  <si>
+    <t>17.10.2013 14:44Uhr</t>
+  </si>
+  <si>
+    <t>funktinoiert teilweise</t>
+  </si>
+  <si>
+    <t>17.10.2013 14:00Uhr</t>
   </si>
 </sst>
 </file>
@@ -635,7 +632,7 @@
   <dimension ref="A1:F80"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -745,7 +742,7 @@
         <v>56</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
     </row>
     <row r="6" spans="1:6" s="10" customFormat="1" ht="30">
@@ -762,7 +759,7 @@
         <v>19</v>
       </c>
       <c r="E6" s="10" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="F6" s="11" t="s">
         <v>57</v>
@@ -828,44 +825,44 @@
         <v>57</v>
       </c>
     </row>
-    <row r="10" spans="1:6" s="8" customFormat="1" ht="45">
-      <c r="A10" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="B10" s="9" t="s">
+    <row r="10" spans="1:6" s="6" customFormat="1" ht="45">
+      <c r="A10" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="B10" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="C10" s="9" t="s">
+      <c r="C10" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="D10" s="9" t="s">
+      <c r="D10" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="E10" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="F10" s="9" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" s="8" customFormat="1" ht="45">
-      <c r="A11" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="B11" s="9" t="s">
+      <c r="E10" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" s="6" customFormat="1" ht="45">
+      <c r="A11" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="B11" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="C11" s="9" t="s">
+      <c r="C11" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="D11" s="9" t="s">
+      <c r="D11" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="E11" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="F11" s="9" t="s">
-        <v>64</v>
+      <c r="E11" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="12" spans="1:6" s="6" customFormat="1" ht="45">
@@ -882,10 +879,10 @@
         <v>36</v>
       </c>
       <c r="E12" s="6" t="s">
-        <v>67</v>
+        <v>56</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="13" spans="1:6" s="6" customFormat="1" ht="30">
@@ -902,30 +899,30 @@
         <v>39</v>
       </c>
       <c r="E13" s="6" t="s">
-        <v>67</v>
+        <v>56</v>
       </c>
       <c r="F13" s="7" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" s="6" customFormat="1" ht="30">
+      <c r="A14" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="B14" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="D14" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="E14" s="6" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="14" spans="1:6" s="8" customFormat="1" ht="30">
-      <c r="A14" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="B14" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="C14" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="D14" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="E14" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="F14" s="9" t="s">
-        <v>64</v>
+      <c r="F14" s="7" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="15" spans="1:6" s="6" customFormat="1" ht="45">
@@ -942,10 +939,10 @@
         <v>46</v>
       </c>
       <c r="E15" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="F15" s="7" t="s">
         <v>67</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="16" spans="1:6" s="12" customFormat="1" ht="30">
@@ -961,11 +958,11 @@
       <c r="D16" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="E16" s="12" t="s">
-        <v>70</v>
+      <c r="E16" s="6" t="s">
+        <v>56</v>
       </c>
       <c r="F16" s="13" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="17" spans="1:6" s="6" customFormat="1" ht="45">
@@ -981,11 +978,11 @@
       <c r="D17" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="E17" s="12" t="s">
-        <v>71</v>
+      <c r="E17" s="6" t="s">
+        <v>69</v>
       </c>
       <c r="F17" s="13" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="18" spans="1:6" s="6" customFormat="1" ht="30">
@@ -1001,7 +998,7 @@
       <c r="D18" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="E18" s="7" t="s">
+      <c r="E18" s="6" t="s">
         <v>56</v>
       </c>
       <c r="F18" s="7" t="s">
@@ -1081,6 +1078,7 @@
       <c r="B80" s="5"/>
     </row>
   </sheetData>
+  <autoFilter ref="E1:E80"/>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="0" r:id="rId1"/>
 </worksheet>

--- a/Testphase/Testfälle_Zentralbereichsleiter.xlsx
+++ b/Testphase/Testfälle_Zentralbereichsleiter.xlsx
@@ -207,9 +207,6 @@
     <t>Weiterleitung auf den Startbildschirm nach erfolgreichem ändern</t>
   </si>
   <si>
-    <t>funktioniert nicht</t>
-  </si>
-  <si>
     <t>16.10.2013 9:40Uhr</t>
   </si>
   <si>
@@ -232,6 +229,9 @@
   </si>
   <si>
     <t>17.10.2013 14:00Uhr</t>
+  </si>
+  <si>
+    <t>funktioniert nicht aber nicht ausdrücklich verlangt</t>
   </si>
 </sst>
 </file>
@@ -631,8 +631,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F80"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -742,7 +742,7 @@
         <v>56</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="6" spans="1:6" s="10" customFormat="1" ht="30">
@@ -759,7 +759,7 @@
         <v>19</v>
       </c>
       <c r="E6" s="10" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F6" s="11" t="s">
         <v>57</v>
@@ -842,7 +842,7 @@
         <v>56</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="11" spans="1:6" s="6" customFormat="1" ht="45">
@@ -859,10 +859,10 @@
         <v>33</v>
       </c>
       <c r="E11" s="6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="12" spans="1:6" s="6" customFormat="1" ht="45">
@@ -882,7 +882,7 @@
         <v>56</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="13" spans="1:6" s="6" customFormat="1" ht="30">
@@ -902,7 +902,7 @@
         <v>56</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="14" spans="1:6" s="6" customFormat="1" ht="30">
@@ -919,10 +919,10 @@
         <v>43</v>
       </c>
       <c r="E14" s="6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="15" spans="1:6" s="6" customFormat="1" ht="45">
@@ -942,7 +942,7 @@
         <v>56</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="16" spans="1:6" s="12" customFormat="1" ht="30">
@@ -962,7 +962,7 @@
         <v>56</v>
       </c>
       <c r="F16" s="13" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="17" spans="1:6" s="6" customFormat="1" ht="45">
@@ -979,10 +979,10 @@
         <v>52</v>
       </c>
       <c r="E17" s="6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F17" s="13" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="18" spans="1:6" s="6" customFormat="1" ht="30">
@@ -1019,10 +1019,10 @@
         <v>61</v>
       </c>
       <c r="E19" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="F19" s="9" t="s">
         <v>62</v>
-      </c>
-      <c r="F19" s="9" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="24" spans="1:6">
